--- a/data/input/neighbors_demand;source=TYNDP_2022.xlsx
+++ b/data/input/neighbors_demand;source=TYNDP_2022.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>area</t>
         </is>
       </c>
       <c r="B1" s="1" t="n">
@@ -486,7 +486,7 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t># Unit</t>
         </is>
       </c>
     </row>
